--- a/ExcelConfig/characters.xlsx
+++ b/ExcelConfig/characters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="2540" windowWidth="18320" windowHeight="10420" activeTab="2"/>
+    <workbookView xWindow="3440" yWindow="2540" windowWidth="18320" windowHeight="10420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -298,16 +298,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>骷髅战士</t>
-    <rPh sb="0" eb="1">
-      <t>ku lou</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhan shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DamageType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -323,14 +313,6 @@
     <rPh sb="2" eb="3">
       <t>mu lu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Characters/humanwizard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Characters/skeletonwarrior</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -353,13 +335,29 @@
   <si>
     <t>att_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Characters/Human-Wizard-Red.prefab</t>
+  </si>
+  <si>
+    <t>人类弓箭手</t>
+    <rPh sb="0" eb="1">
+      <t>ren lei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gong jian shou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Characters/Archer-Blue.prefab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,6 +410,11 @@
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFA31515"/>
+      <name val="Menlo"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -433,12 +436,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -796,11 +800,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -832,7 +836,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>17</v>
@@ -862,7 +866,7 @@
         <v>33</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -920,7 +924,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
@@ -960,8 +964,8 @@
       <c r="C4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>40</v>
+      <c r="D4" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="E4" s="2">
         <v>500</v>
@@ -999,10 +1003,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="E5" s="2">
         <v>1000</v>
@@ -1052,7 +1056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -1083,7 +1087,7 @@
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1100,7 +1104,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1117,7 +1121,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1128,7 +1132,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -1142,7 +1146,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>

--- a/ExcelConfig/characters.xlsx
+++ b/ExcelConfig/characters.xlsx
@@ -31,7 +31,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="K3" authorId="0">
+    <comment ref="L3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0">
+    <comment ref="M3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="0">
+    <comment ref="N3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -76,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="0">
+    <comment ref="O3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -351,6 +351,23 @@
   </si>
   <si>
     <t>Characters/Archer-Blue.prefab</t>
+  </si>
+  <si>
+    <t>AttackSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击速度(间隔秒)</t>
+    <rPh sb="0" eb="1">
+      <t>gong ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>su du</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jian ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -798,13 +815,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -812,20 +829,20 @@
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="37.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" style="2"/>
-    <col min="11" max="11" width="11" style="2" customWidth="1"/>
-    <col min="12" max="13" width="13.5" style="2" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="8.83203125" style="2"/>
+    <col min="4" max="5" width="37.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" style="2"/>
+    <col min="12" max="12" width="11" style="2" customWidth="1"/>
+    <col min="13" max="14" width="13.5" style="2" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -839,37 +856,40 @@
         <v>37</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -883,7 +903,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>6</v>
@@ -912,8 +932,11 @@
       <c r="N2" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="O2" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -926,38 +949,41 @@
       <c r="D3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="O3" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -967,38 +993,41 @@
       <c r="D4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="2">
         <v>500</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>100</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>150</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>100</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>50</v>
       </c>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
       <c r="K4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2">
         <v>0</v>
       </c>
       <c r="M4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="2">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -1008,41 +1037,44 @@
       <c r="D5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="2">
         <v>1000</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>50</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>100</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>50</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>100</v>
       </c>
-      <c r="J5" s="2">
-        <v>1</v>
-      </c>
       <c r="K5" s="2">
         <v>1</v>
       </c>
       <c r="L5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
       </c>
       <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:R2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:S2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ExcelConfig/characters.xlsx
+++ b/ExcelConfig/characters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="2540" windowWidth="18320" windowHeight="10420" activeTab="1"/>
+    <workbookView xWindow="1760" yWindow="520" windowWidth="18320" windowHeight="10420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="L3" authorId="0">
+    <comment ref="N3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="0">
+    <comment ref="O3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="0">
+    <comment ref="P3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -76,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="0">
+    <comment ref="Q3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -96,8 +96,47 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="G3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t>1 AI释放
+2 创建角色释放</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t>AI获取编号</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -366,6 +405,122 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>jian ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIResourcePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI路径</t>
+    <rPh sb="2" eb="3">
+      <t>lu jing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI/AITree_1.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度（m/s）</t>
+    <rPh sb="0" eb="1">
+      <t>yi dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>su du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReleaseType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放类型</t>
+    <rPh sb="0" eb="1">
+      <t>shi fang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lei xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReleaseParams</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放参数</t>
+    <rPh sb="0" eb="1">
+      <t>shi fang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>can shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放参数:1）AI获取编号</t>
+    <rPh sb="0" eb="1">
+      <t>shi fang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>can shu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>huo qu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bian hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放距离（释放最大距离）</t>
+    <rPh sb="0" eb="1">
+      <t>shi fang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ju li</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi fang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zui da</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ju li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReleaseRangeMin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReleaseRangeMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放最小距离</t>
+    <rPh sb="0" eb="1">
+      <t>shi fang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zui da</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ju li</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -767,7 +922,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -815,13 +970,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -829,20 +984,20 @@
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="2" customWidth="1"/>
-    <col min="4" max="5" width="37.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.1640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" style="2"/>
-    <col min="12" max="12" width="11" style="2" customWidth="1"/>
-    <col min="13" max="14" width="13.5" style="2" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="8.83203125" style="2"/>
+    <col min="4" max="7" width="37.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" style="2"/>
+    <col min="14" max="14" width="11" style="2" customWidth="1"/>
+    <col min="15" max="16" width="13.5" style="2" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -856,40 +1011,46 @@
         <v>37</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -903,13 +1064,13 @@
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>6</v>
@@ -935,8 +1096,14 @@
       <c r="O2" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="P2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -950,40 +1117,46 @@
         <v>38</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -993,41 +1166,45 @@
       <c r="D4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5">
         <v>0.5</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="5">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2">
         <v>500</v>
-      </c>
-      <c r="G4" s="2">
-        <v>100</v>
-      </c>
-      <c r="H4" s="2">
-        <v>150</v>
       </c>
       <c r="I4" s="2">
         <v>100</v>
       </c>
       <c r="J4" s="2">
+        <v>150</v>
+      </c>
+      <c r="K4" s="2">
+        <v>100</v>
+      </c>
+      <c r="L4" s="2">
         <v>50</v>
       </c>
-      <c r="K4" s="2">
-        <v>1</v>
-      </c>
-      <c r="L4" s="2">
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2">
         <v>0</v>
       </c>
-      <c r="M4" s="2">
+      <c r="O4" s="2">
         <v>0</v>
       </c>
-      <c r="N4" s="2">
-        <v>1</v>
-      </c>
-      <c r="O4" s="2">
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -1037,17 +1214,17 @@
       <c r="D5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="5">
         <v>0.5</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
         <v>1000</v>
-      </c>
-      <c r="G5" s="2">
-        <v>50</v>
-      </c>
-      <c r="H5" s="2">
-        <v>100</v>
       </c>
       <c r="I5" s="2">
         <v>50</v>
@@ -1056,25 +1233,31 @@
         <v>100</v>
       </c>
       <c r="K5" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="L5" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2">
         <v>0</v>
       </c>
-      <c r="N5" s="2">
+      <c r="P5" s="2">
         <v>0</v>
       </c>
-      <c r="O5" s="2">
+      <c r="Q5" s="2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:S2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:U2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1085,27 +1268,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16" style="2" customWidth="1"/>
+    <col min="1" max="1" width="27.83203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="25.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="2"/>
+    <col min="4" max="7" width="27.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28.1640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1119,10 +1303,22 @@
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1138,8 +1334,20 @@
       <c r="E2" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1153,10 +1361,25 @@
         <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -1167,10 +1390,22 @@
         <v>42</v>
       </c>
       <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -1181,17 +1416,30 @@
         <v>42</v>
       </c>
       <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:Q2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:U2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ExcelConfig/characters.xlsx
+++ b/ExcelConfig/characters.xlsx
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="62">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -970,21 +970,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="2" customWidth="1"/>
-    <col min="4" max="7" width="37.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="41.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="37.33203125" style="2" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="11.83203125" style="2" customWidth="1"/>
     <col min="10" max="10" width="14.33203125" style="2" customWidth="1"/>
@@ -1161,12 +1163,14 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="F4" s="5">
         <v>0.5</v>
       </c>
@@ -1209,10 +1213,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>50</v>
@@ -1253,6 +1257,9 @@
       <c r="Q5" s="2">
         <v>1</v>
       </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D6" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ExcelConfig/characters.xlsx
+++ b/ExcelConfig/characters.xlsx
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -372,10 +372,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>att_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Characters/Human-Wizard-Red.prefab</t>
   </si>
   <si>
@@ -522,6 +518,14 @@
     <rPh sb="4" eb="5">
       <t>ju li</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>att_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>att_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1013,13 +1017,13 @@
         <v>37</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>17</v>
@@ -1119,13 +1123,13 @@
         <v>38</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>18</v>
@@ -1163,13 +1167,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="E4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" s="5">
         <v>0.5</v>
@@ -1216,10 +1220,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" s="5">
         <v>0.5</v>
@@ -1310,16 +1314,16 @@
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>39</v>
@@ -1368,16 +1372,16 @@
         <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>41</v>
@@ -1385,7 +1389,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -1394,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -1420,7 +1424,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>

--- a/ExcelConfig/characters.xlsx
+++ b/ExcelConfig/characters.xlsx
@@ -980,7 +980,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1176,19 +1176,19 @@
         <v>49</v>
       </c>
       <c r="F4" s="5">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="G4" s="5">
         <v>2</v>
       </c>
       <c r="H4" s="2">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="I4" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J4" s="2">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="K4" s="2">
         <v>100</v>
@@ -1226,7 +1226,7 @@
         <v>49</v>
       </c>
       <c r="F5" s="5">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="G5" s="5">
         <v>2</v>

--- a/ExcelConfig/characters.xlsx
+++ b/ExcelConfig/characters.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="520" windowWidth="18320" windowHeight="10420" activeTab="1"/>
+    <workbookView xWindow="-1440" yWindow="580" windowWidth="25080" windowHeight="12840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
     <sheet name="CharacterData" sheetId="1" r:id="rId2"/>
     <sheet name="CharacterMagicData" sheetId="4" r:id="rId3"/>
+    <sheet name=" 参数表" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
@@ -136,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="73">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -525,8 +526,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>att_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>攻击力</t>
+    <rPh sb="0" eb="1">
+      <t>gong ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度</t>
+    <rPh sb="0" eb="1">
+      <t>yi dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>su du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击速度</t>
+    <rPh sb="0" eb="1">
+      <t>gong ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>su du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>att_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类战士</t>
+    <rPh sb="0" eb="1">
+      <t>ren lei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhan shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI/AITree_1.xml</t>
+  </si>
+  <si>
+    <t>Characters/MedievalKnight-Blue.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类武士</t>
+    <rPh sb="0" eb="1">
+      <t>ren lei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wu shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Characters/Necromancer-Cyan.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>att_003</t>
+  </si>
+  <si>
+    <t>att_004</t>
   </si>
 </sst>
 </file>
@@ -974,13 +1042,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -988,9 +1056,10 @@
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="41.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="45.83203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="30.6640625" style="2" customWidth="1"/>
-    <col min="6" max="7" width="37.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="11.83203125" style="2" customWidth="1"/>
     <col min="10" max="10" width="14.33203125" style="2" customWidth="1"/>
@@ -1179,7 +1248,7 @@
         <v>1.5</v>
       </c>
       <c r="G4" s="5">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H4" s="2">
         <v>1500</v>
@@ -1206,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -1229,7 +1298,7 @@
         <v>1.5</v>
       </c>
       <c r="G5" s="5">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H5" s="2">
         <v>1000</v>
@@ -1244,26 +1313,123 @@
         <v>50</v>
       </c>
       <c r="L5" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M5" s="2">
         <v>1</v>
       </c>
       <c r="N5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
       </c>
       <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1800</v>
+      </c>
+      <c r="I6" s="2">
+        <v>50</v>
+      </c>
+      <c r="J6" s="2">
+        <v>80</v>
+      </c>
+      <c r="K6" s="2">
+        <v>100</v>
+      </c>
+      <c r="L6" s="2">
+        <v>150</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1</v>
+      </c>
+      <c r="N6" s="2">
         <v>0</v>
       </c>
-      <c r="Q5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D6" s="5"/>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I7" s="2">
+        <v>100</v>
+      </c>
+      <c r="J7" s="2">
+        <v>150</v>
+      </c>
+      <c r="K7" s="2">
+        <v>100</v>
+      </c>
+      <c r="L7" s="2">
+        <v>200</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1280,13 +1446,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1404,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
@@ -1413,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1421,10 +1587,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -1436,10 +1602,62 @@
         <v>1</v>
       </c>
       <c r="H5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" s="2">
-        <v>1</v>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -1453,4 +1671,63 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ExcelConfig/characters.xlsx
+++ b/ExcelConfig/characters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-1440" yWindow="580" windowWidth="25080" windowHeight="12840" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="580" windowWidth="25080" windowHeight="12840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="N3" authorId="0">
+    <comment ref="O3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="0">
+    <comment ref="P3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -62,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="0">
+    <comment ref="Q3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="0">
+    <comment ref="R3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="75">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -595,6 +595,17 @@
   </si>
   <si>
     <t>att_004</t>
+  </si>
+  <si>
+    <t>Cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗</t>
+    <rPh sb="0" eb="1">
+      <t>xiao hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1042,13 +1053,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P11" sqref="P11"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1058,21 +1069,22 @@
     <col min="3" max="3" width="11.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="45.83203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="30.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.1640625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="8.83203125" style="2"/>
-    <col min="14" max="14" width="11" style="2" customWidth="1"/>
-    <col min="15" max="16" width="13.5" style="2" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="8.83203125" style="2"/>
+    <col min="6" max="6" width="10.1640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="11.1640625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="8.83203125" style="2"/>
+    <col min="15" max="15" width="11" style="2" customWidth="1"/>
+    <col min="16" max="17" width="13.5" style="2" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1089,43 +1101,46 @@
         <v>47</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1142,13 +1157,13 @@
         <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>6</v>
@@ -1177,8 +1192,11 @@
       <c r="Q2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1195,43 +1213,46 @@
         <v>48</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R3" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -1245,31 +1266,31 @@
         <v>49</v>
       </c>
       <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
         <v>1.5</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H4" s="5">
         <v>0.5</v>
       </c>
-      <c r="H4" s="2">
-        <v>1500</v>
-      </c>
       <c r="I4" s="2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J4" s="2">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="K4" s="2">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="L4" s="2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="M4" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
@@ -1278,10 +1299,13 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -1295,43 +1319,46 @@
         <v>49</v>
       </c>
       <c r="F5" s="5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5">
         <v>1.5</v>
       </c>
-      <c r="G5" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1000</v>
+      <c r="H5" s="5">
+        <v>0.8</v>
       </c>
       <c r="I5" s="2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J5" s="2">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="K5" s="2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="L5" s="2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="M5" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="2">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -1344,32 +1371,32 @@
       <c r="E6" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="5">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2">
         <v>3</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>0.8</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1800</v>
       </c>
       <c r="I6" s="2">
         <v>50</v>
       </c>
       <c r="J6" s="2">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="K6" s="2">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="L6" s="2">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="M6" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
@@ -1378,10 +1405,13 @@
         <v>0</v>
       </c>
       <c r="Q6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -1394,47 +1424,50 @@
       <c r="E7" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="2">
-        <v>1</v>
+      <c r="F7" s="5">
+        <v>5</v>
       </c>
       <c r="G7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" s="2">
-        <v>2000</v>
+        <v>1.5</v>
       </c>
       <c r="I7" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J7" s="2">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="K7" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="L7" s="2">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="M7" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N7" s="2">
+        <v>1</v>
+      </c>
+      <c r="O7" s="2">
         <v>0</v>
       </c>
-      <c r="O7" s="2">
-        <v>1</v>
-      </c>
       <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
         <v>0</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:U2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:V2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1677,7 +1710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>

--- a/ExcelConfig/characters.xlsx
+++ b/ExcelConfig/characters.xlsx
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="77">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -604,6 +604,17 @@
     <t>消耗</t>
     <rPh sb="0" eb="1">
       <t>xiao hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Characters/tower.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箭塔</t>
+    <rPh sb="0" eb="1">
+      <t>jian ta</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1053,13 +1064,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1462,6 +1473,56 @@
       </c>
       <c r="R7" s="2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>999</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/characters.xlsx
+++ b/ExcelConfig/characters.xlsx
@@ -1067,10 +1067,10 @@
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1283,16 +1283,16 @@
         <v>1.5</v>
       </c>
       <c r="H4" s="5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I4" s="2">
         <v>20</v>
       </c>
       <c r="J4" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K4" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L4" s="2">
         <v>10</v>
@@ -1342,10 +1342,10 @@
         <v>20</v>
       </c>
       <c r="J5" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K5" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L5" s="2">
         <v>10</v>
@@ -1389,16 +1389,16 @@
         <v>3</v>
       </c>
       <c r="H6" s="2">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I6" s="2">
         <v>50</v>
       </c>
       <c r="J6" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K6" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L6" s="2">
         <v>5</v>
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="2">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="I7" s="2">
         <v>50</v>
@@ -1489,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="2">
-        <v>999</v>
+        <v>6</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1498,19 +1498,19 @@
         <v>1000</v>
       </c>
       <c r="J8" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L8" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M8" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="R8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/characters.xlsx
+++ b/ExcelConfig/characters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="580" windowWidth="25080" windowHeight="12840" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="580" windowWidth="25080" windowHeight="12840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="78">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -616,6 +616,10 @@
     <rPh sb="0" eb="1">
       <t>jian ta</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>att_005</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1066,11 +1070,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1540,13 +1544,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1752,6 +1756,32 @@
       </c>
       <c r="I7" s="2">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>8</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/characters.xlsx
+++ b/ExcelConfig/characters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="580" windowWidth="25080" windowHeight="12840" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="580" windowWidth="25080" windowHeight="12840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="79">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -620,6 +620,10 @@
   </si>
   <si>
     <t>att_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI/AITree_2.xml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1070,11 +1074,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1281,7 +1285,7 @@
         <v>49</v>
       </c>
       <c r="F4" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" s="5">
         <v>1.5</v>
@@ -1334,7 +1338,7 @@
         <v>49</v>
       </c>
       <c r="F5" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5" s="5">
         <v>1.5</v>
@@ -1387,7 +1391,7 @@
         <v>67</v>
       </c>
       <c r="F6" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" s="2">
         <v>3</v>
@@ -1489,11 +1493,14 @@
       <c r="D8" s="2" t="s">
         <v>75</v>
       </c>
+      <c r="E8" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="F8" s="2">
         <v>0</v>
       </c>
       <c r="G8" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1546,11 +1553,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/ExcelConfig/characters.xlsx
+++ b/ExcelConfig/characters.xlsx
@@ -1075,10 +1075,10 @@
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/ExcelConfig/characters.xlsx
+++ b/ExcelConfig/characters.xlsx
@@ -32,7 +32,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="O3" authorId="0">
+    <comment ref="P3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="0">
+    <comment ref="Q3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -62,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="0">
+    <comment ref="R3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="0">
+    <comment ref="S3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="81">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -624,6 +624,20 @@
   </si>
   <si>
     <t>AI/AITree_2.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PriorityMove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>避让优先级</t>
+    <rPh sb="0" eb="1">
+      <t>bi rang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>you xian ji</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -631,7 +645,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -689,6 +703,11 @@
       <color rgb="FFA31515"/>
       <name val="Menlo"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -710,13 +729,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1072,13 +1092,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1090,20 +1110,20 @@
     <col min="5" max="5" width="30.6640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.1640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="16.1640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.83203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.1640625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.1640625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="8.83203125" style="2"/>
-    <col min="15" max="15" width="11" style="2" customWidth="1"/>
-    <col min="16" max="17" width="13.5" style="2" customWidth="1"/>
-    <col min="18" max="18" width="12.33203125" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="8.83203125" style="2"/>
+    <col min="8" max="9" width="15.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.1640625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.83203125" style="2"/>
+    <col min="16" max="16" width="11" style="2" customWidth="1"/>
+    <col min="17" max="18" width="13.5" style="2" customWidth="1"/>
+    <col min="19" max="19" width="12.33203125" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1128,38 +1148,41 @@
       <c r="H1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1185,7 +1208,7 @@
         <v>40</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>6</v>
@@ -1214,8 +1237,11 @@
       <c r="R2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1240,38 +1266,41 @@
       <c r="H3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S3" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -1293,26 +1322,26 @@
       <c r="H4" s="5">
         <v>1</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="5">
+        <v>100</v>
+      </c>
+      <c r="J4" s="2">
         <v>20</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>8</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>12</v>
       </c>
-      <c r="L4" s="2">
+      <c r="M4" s="2">
         <v>10</v>
       </c>
-      <c r="M4" s="2">
+      <c r="N4" s="2">
         <v>5</v>
       </c>
-      <c r="N4" s="2">
-        <v>1</v>
-      </c>
       <c r="O4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" s="2">
         <v>0</v>
@@ -1321,10 +1350,13 @@
         <v>0</v>
       </c>
       <c r="R4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -1346,38 +1378,41 @@
       <c r="H5" s="5">
         <v>0.8</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="5">
+        <v>100</v>
+      </c>
+      <c r="J5" s="2">
         <v>20</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>10</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>12</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <v>10</v>
       </c>
-      <c r="M5" s="2">
+      <c r="N5" s="2">
         <v>5</v>
       </c>
-      <c r="N5" s="2">
-        <v>1</v>
-      </c>
       <c r="O5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" s="2">
         <v>0</v>
       </c>
       <c r="Q5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="2">
+        <v>1</v>
+      </c>
+      <c r="S5" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -1397,28 +1432,28 @@
         <v>3</v>
       </c>
       <c r="H6" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="I6" s="2">
+        <v>30</v>
+      </c>
+      <c r="J6" s="2">
         <v>50</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>8</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>10</v>
       </c>
-      <c r="L6" s="2">
+      <c r="M6" s="2">
         <v>5</v>
       </c>
-      <c r="M6" s="2">
+      <c r="N6" s="2">
         <v>10</v>
       </c>
-      <c r="N6" s="2">
-        <v>1</v>
-      </c>
       <c r="O6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" s="2">
         <v>0</v>
@@ -1427,10 +1462,13 @@
         <v>0</v>
       </c>
       <c r="R6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -1447,7 +1485,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H7" s="2">
         <v>1.2</v>
@@ -1456,34 +1494,37 @@
         <v>50</v>
       </c>
       <c r="J7" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="K7" s="2">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="L7" s="2">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="M7" s="2">
         <v>10</v>
       </c>
       <c r="N7" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>5</v>
       </c>
@@ -1506,40 +1547,43 @@
         <v>0</v>
       </c>
       <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
         <v>1000</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>5</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <v>8</v>
-      </c>
-      <c r="L8" s="2">
-        <v>5</v>
       </c>
       <c r="M8" s="2">
         <v>5</v>
       </c>
       <c r="N8" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:V2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:W2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1554,10 +1598,10 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1:D1048576"/>
+      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1675,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>

--- a/ExcelConfig/characters.xlsx
+++ b/ExcelConfig/characters.xlsx
@@ -328,16 +328,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>人类法师</t>
-    <rPh sb="0" eb="1">
-      <t>ren lei</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fa shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DamageType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -376,16 +366,6 @@
     <t>Characters/Human-Wizard-Red.prefab</t>
   </si>
   <si>
-    <t>人类弓箭手</t>
-    <rPh sb="0" eb="1">
-      <t>ren lei</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>gong jian shou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Characters/Archer-Blue.prefab</t>
   </si>
   <si>
@@ -560,16 +540,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>人类战士</t>
-    <rPh sb="0" eb="1">
-      <t>ren lei</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhan shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AI/AITree_1.xml</t>
   </si>
   <si>
@@ -577,16 +547,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>人类武士</t>
-    <rPh sb="0" eb="1">
-      <t>ren lei</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>wu shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Characters/Necromancer-Cyan.prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -609,13 +569,6 @@
   </si>
   <si>
     <t>Characters/tower.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>箭塔</t>
-    <rPh sb="0" eb="1">
-      <t>jian ta</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -637,6 +590,53 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>you xian ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类弓箭手</t>
+    <rPh sb="1" eb="2">
+      <t>ren lei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gong jian shou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类法师</t>
+    <rPh sb="1" eb="2">
+      <t>ren lei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fa shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类战士</t>
+    <rPh sb="1" eb="2">
+      <t>ren lei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhan shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类武士</t>
+    <rPh sb="1" eb="2">
+      <t>ren lei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wu shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箭塔</t>
+    <rPh sb="1" eb="2">
+      <t>jian ta</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -645,7 +645,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -700,11 +700,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFA31515"/>
-      <name val="Menlo"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Menlo"/>
     </font>
@@ -729,14 +724,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1095,10 +1089,10 @@
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1134,22 +1128,22 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>79</v>
+        <v>48</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>17</v>
@@ -1179,7 +1173,7 @@
         <v>33</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -1202,13 +1196,13 @@
         <v>6</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>6</v>
@@ -1241,342 +1235,342 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:19" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="F3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>1.5</v>
+      </c>
+      <c r="H4">
+        <v>0.5</v>
+      </c>
+      <c r="I4">
+        <v>30</v>
+      </c>
+      <c r="J4">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>8</v>
+      </c>
+      <c r="L4">
+        <v>17</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>1.5</v>
+      </c>
+      <c r="H5">
+        <v>0.8</v>
+      </c>
+      <c r="I5">
+        <v>30</v>
+      </c>
+      <c r="J5">
+        <v>20</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>12</v>
+      </c>
+      <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>30</v>
+      </c>
+      <c r="J6">
+        <v>100</v>
+      </c>
+      <c r="K6">
+        <v>8</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <v>10</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>50</v>
+      </c>
+      <c r="J7">
+        <v>200</v>
+      </c>
+      <c r="K7">
+        <v>20</v>
+      </c>
+      <c r="L7">
+        <v>30</v>
+      </c>
+      <c r="M7">
+        <v>10</v>
+      </c>
+      <c r="N7">
+        <v>10</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
         <v>80</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>3</v>
       </c>
-      <c r="G4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="H4" s="5">
-        <v>1</v>
-      </c>
-      <c r="I4" s="5">
-        <v>100</v>
-      </c>
-      <c r="J4" s="2">
-        <v>20</v>
-      </c>
-      <c r="K4" s="2">
-        <v>8</v>
-      </c>
-      <c r="L4" s="2">
-        <v>12</v>
-      </c>
-      <c r="M4" s="2">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1000</v>
+      </c>
+      <c r="K8">
         <v>10</v>
       </c>
-      <c r="N4" s="2">
+      <c r="L8">
+        <v>15</v>
+      </c>
+      <c r="M8">
         <v>5</v>
       </c>
-      <c r="O4" s="2">
-        <v>1</v>
-      </c>
-      <c r="P4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2">
-        <v>0</v>
-      </c>
-      <c r="S4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="5">
-        <v>4</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="I5" s="5">
-        <v>100</v>
-      </c>
-      <c r="J5" s="2">
-        <v>20</v>
-      </c>
-      <c r="K5" s="2">
-        <v>10</v>
-      </c>
-      <c r="L5" s="2">
-        <v>12</v>
-      </c>
-      <c r="M5" s="2">
-        <v>10</v>
-      </c>
-      <c r="N5" s="2">
+      <c r="N8">
         <v>5</v>
       </c>
-      <c r="O5" s="2">
-        <v>1</v>
-      </c>
-      <c r="P5" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>0</v>
-      </c>
-      <c r="R5" s="2">
-        <v>1</v>
-      </c>
-      <c r="S5" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B6" s="2">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="5">
-        <v>3</v>
-      </c>
-      <c r="G6" s="2">
-        <v>3</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="I6" s="2">
-        <v>30</v>
-      </c>
-      <c r="J6" s="2">
-        <v>50</v>
-      </c>
-      <c r="K6" s="2">
-        <v>8</v>
-      </c>
-      <c r="L6" s="2">
-        <v>10</v>
-      </c>
-      <c r="M6" s="2">
-        <v>5</v>
-      </c>
-      <c r="N6" s="2">
-        <v>10</v>
-      </c>
-      <c r="O6" s="2">
-        <v>1</v>
-      </c>
-      <c r="P6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>0</v>
-      </c>
-      <c r="R6" s="2">
-        <v>0</v>
-      </c>
-      <c r="S6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="5">
-        <v>5</v>
-      </c>
-      <c r="G7" s="2">
-        <v>5</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="I7" s="2">
-        <v>50</v>
-      </c>
-      <c r="J7" s="2">
-        <v>50</v>
-      </c>
-      <c r="K7" s="2">
-        <v>50</v>
-      </c>
-      <c r="L7" s="2">
-        <v>60</v>
-      </c>
-      <c r="M7" s="2">
-        <v>10</v>
-      </c>
-      <c r="N7" s="2">
-        <v>10</v>
-      </c>
-      <c r="O7" s="2">
-        <v>1</v>
-      </c>
-      <c r="P7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>1</v>
-      </c>
-      <c r="R7" s="2">
-        <v>0</v>
-      </c>
-      <c r="S7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B8" s="2">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>4</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>1000</v>
-      </c>
-      <c r="K8" s="2">
-        <v>5</v>
-      </c>
-      <c r="L8" s="2">
-        <v>8</v>
-      </c>
-      <c r="M8" s="2">
-        <v>5</v>
-      </c>
-      <c r="N8" s="2">
-        <v>5</v>
-      </c>
-      <c r="O8" s="2">
-        <v>1</v>
-      </c>
-      <c r="P8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>1</v>
-      </c>
-      <c r="R8" s="2">
-        <v>0</v>
-      </c>
-      <c r="S8" s="2">
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
         <v>1</v>
       </c>
     </row>
@@ -1598,10 +1592,10 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1629,19 +1623,19 @@
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1658,10 +1652,10 @@
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>6</v>
@@ -1670,7 +1664,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1687,152 +1681,152 @@
         <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>6</v>
       </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="2">
+    <row r="5" spans="1:9" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5</v>
       </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2">
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="2">
+    <row r="6" spans="1:9" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>3</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2">
+      <c r="D6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
         <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="2">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>8</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1863,7 +1857,7 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1879,7 +1873,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1887,7 +1881,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B5">
         <v>2</v>

--- a/ExcelConfig/characters.xlsx
+++ b/ExcelConfig/characters.xlsx
@@ -594,49 +594,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>人类弓箭手</t>
-    <rPh sb="1" eb="2">
-      <t>ren lei</t>
-    </rPh>
-    <rPh sb="3" eb="4">
+    <t>弓箭手</t>
+    <rPh sb="0" eb="1">
       <t>gong jian shou</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>人类法师</t>
-    <rPh sb="1" eb="2">
-      <t>ren lei</t>
-    </rPh>
-    <rPh sb="3" eb="4">
+    <t>法师</t>
+    <rPh sb="0" eb="1">
       <t>fa shi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>人类战士</t>
-    <rPh sb="1" eb="2">
-      <t>ren lei</t>
-    </rPh>
-    <rPh sb="3" eb="4">
+    <t>战士</t>
+    <rPh sb="0" eb="1">
       <t>zhan shi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>人类武士</t>
-    <rPh sb="1" eb="2">
-      <t>ren lei</t>
-    </rPh>
-    <rPh sb="3" eb="4">
+    <t>武士</t>
+    <rPh sb="0" eb="1">
       <t>wu shi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>箭塔</t>
-    <rPh sb="1" eb="2">
-      <t>jian ta</t>
+    <t>防御塔</t>
+    <rPh sb="0" eb="1">
+      <t>fang yu ta</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1089,10 +1077,10 @@
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1317,7 +1305,7 @@
         <v>0.5</v>
       </c>
       <c r="I4">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="J4">
         <v>20</v>
@@ -1373,7 +1361,7 @@
         <v>0.8</v>
       </c>
       <c r="I5">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="J5">
         <v>20</v>
@@ -1429,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="J6">
         <v>100</v>

--- a/ExcelConfig/characters.xlsx
+++ b/ExcelConfig/characters.xlsx
@@ -1077,10 +1077,10 @@
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1296,28 +1296,28 @@
         <v>47</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I4">
         <v>80</v>
       </c>
       <c r="J4">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="K4">
         <v>8</v>
       </c>
       <c r="L4">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="M4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N4">
         <v>5</v>
@@ -1355,16 +1355,16 @@
         <v>4</v>
       </c>
       <c r="G5">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.8</v>
+        <v>5</v>
       </c>
       <c r="I5">
         <v>80</v>
       </c>
       <c r="J5">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="K5">
         <v>10</v>
@@ -1411,29 +1411,29 @@
         <v>5</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6">
         <v>80</v>
       </c>
       <c r="J6">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="K6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="L6">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="M6">
+        <v>20</v>
+      </c>
+      <c r="N6">
         <v>5</v>
       </c>
-      <c r="N6">
-        <v>10</v>
-      </c>
       <c r="O6">
         <v>1</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:19" customFormat="1" ht="14" x14ac:dyDescent="0.15">
@@ -1464,28 +1464,28 @@
         <v>64</v>
       </c>
       <c r="F7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I7">
         <v>50</v>
       </c>
       <c r="J7">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="K7">
+        <v>15</v>
+      </c>
+      <c r="L7">
         <v>20</v>
       </c>
-      <c r="L7">
-        <v>30</v>
-      </c>
       <c r="M7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N7">
         <v>10</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1000</v>
+        <v>1000000000</v>
       </c>
       <c r="K8">
         <v>10</v>
@@ -1544,7 +1544,7 @@
         <v>5</v>
       </c>
       <c r="N8">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -1580,10 +1580,10 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1710,7 +1710,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" customFormat="1" ht="14" x14ac:dyDescent="0.15">
@@ -1736,7 +1736,7 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" customFormat="1" ht="14" x14ac:dyDescent="0.15">
@@ -1762,7 +1762,7 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" customFormat="1" ht="14" x14ac:dyDescent="0.15">
@@ -1788,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" customFormat="1" ht="14" x14ac:dyDescent="0.15">
@@ -1814,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/characters.xlsx
+++ b/ExcelConfig/characters.xlsx
@@ -17,7 +17,7 @@
     <sheet name="CharacterMagicData" sheetId="4" r:id="rId3"/>
     <sheet name=" 参数表" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,7 +32,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="P3" authorId="0">
+    <comment ref="S3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="0">
+    <comment ref="T3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -62,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="0">
+    <comment ref="U3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="0">
+    <comment ref="V3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="89">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -608,13 +608,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>战士</t>
-    <rPh sb="0" eb="1">
-      <t>zhan shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>武士</t>
     <rPh sb="0" eb="1">
       <t>wu shi</t>
@@ -625,6 +618,72 @@
     <t>防御塔</t>
     <rPh sb="0" eb="1">
       <t>fang yu ta</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害参考值</t>
+    <rPh sb="0" eb="1">
+      <t>shang hai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>can kao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生存能力参考值</t>
+    <rPh sb="0" eb="1">
+      <t>sheng cun</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>neng li</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>can kao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗比值</t>
+    <rPh sb="0" eb="1">
+      <t>xiao hao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bi zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI/AITree_3.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牧师</t>
+    <rPh sb="0" eb="1">
+      <t>mu shi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1074,13 +1133,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="O14" activeCellId="1" sqref="P6 O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1090,22 +1149,25 @@
     <col min="3" max="3" width="11.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="45.83203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="30.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" style="2" customWidth="1"/>
-    <col min="8" max="9" width="15.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.5" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.83203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.1640625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.1640625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" style="2"/>
-    <col min="16" max="16" width="11" style="2" customWidth="1"/>
-    <col min="17" max="18" width="13.5" style="2" customWidth="1"/>
-    <col min="19" max="19" width="12.33203125" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="8.83203125" style="2"/>
+    <col min="6" max="6" width="10.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" style="2" customWidth="1"/>
+    <col min="11" max="12" width="15.6640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.5" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.83203125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="10.1640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="11.1640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="8.83203125" style="2"/>
+    <col min="19" max="19" width="11" style="2" customWidth="1"/>
+    <col min="20" max="21" width="13.5" style="2" customWidth="1"/>
+    <col min="22" max="22" width="12.33203125" style="2" customWidth="1"/>
+    <col min="23" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1122,49 +1184,58 @@
         <v>45</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1181,25 +1252,25 @@
         <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>6</v>
@@ -1222,8 +1293,17 @@
       <c r="S2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="T2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1240,49 +1320,58 @@
         <v>46</v>
       </c>
       <c r="F3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" t="s">
         <v>70</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>44</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>49</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>75</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
         <v>18</v>
       </c>
-      <c r="K3" t="s">
+      <c r="N3" t="s">
         <v>22</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>21</v>
       </c>
-      <c r="M3" t="s">
+      <c r="P3" t="s">
         <v>24</v>
       </c>
-      <c r="N3" t="s">
+      <c r="Q3" t="s">
         <v>26</v>
       </c>
-      <c r="O3" t="s">
+      <c r="R3" t="s">
         <v>28</v>
       </c>
-      <c r="P3" t="s">
+      <c r="S3" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="T3" t="s">
         <v>32</v>
       </c>
-      <c r="R3" t="s">
+      <c r="U3" t="s">
         <v>34</v>
       </c>
-      <c r="S3" t="s">
+      <c r="V3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:19" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>1</v>
       </c>
@@ -1296,110 +1385,134 @@
         <v>47</v>
       </c>
       <c r="F4">
+        <f>((N4+O4)/2)/J4</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="G4">
+        <f>(M4/10)*(Q4/10)</f>
+        <v>1.5</v>
+      </c>
+      <c r="H4">
+        <f>(F4+G4)/I4</f>
+        <v>2.4583333333333335</v>
+      </c>
+      <c r="I4">
         <v>4</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
+      <c r="J4">
+        <v>1.5</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>80</v>
+      </c>
+      <c r="M4">
+        <v>30</v>
+      </c>
+      <c r="N4">
+        <v>10</v>
+      </c>
+      <c r="O4">
+        <v>15</v>
+      </c>
+      <c r="P4">
         <v>5</v>
       </c>
-      <c r="I4">
-        <v>80</v>
-      </c>
-      <c r="J4">
-        <v>1000</v>
-      </c>
-      <c r="K4">
-        <v>8</v>
-      </c>
-      <c r="L4">
-        <v>10</v>
-      </c>
-      <c r="M4">
+      <c r="Q4">
         <v>5</v>
       </c>
-      <c r="N4">
-        <v>5</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
       <c r="R4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <f t="shared" ref="F5:F8" si="0">((N5+O5)/2)/J5</f>
+        <v>5.5</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <f>(M5/10)*(Q5/10)</f>
+        <v>1.5</v>
       </c>
       <c r="H5">
+        <f t="shared" ref="H5:H8" si="1">(F5+G5)/I5</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="I5">
+        <v>12</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>80</v>
+      </c>
+      <c r="M5">
+        <v>30</v>
+      </c>
+      <c r="N5">
+        <v>10</v>
+      </c>
+      <c r="O5">
+        <v>12</v>
+      </c>
+      <c r="P5">
+        <v>20</v>
+      </c>
+      <c r="Q5">
         <v>5</v>
       </c>
-      <c r="I5">
-        <v>80</v>
-      </c>
-      <c r="J5">
-        <v>1000</v>
-      </c>
-      <c r="K5">
-        <v>10</v>
-      </c>
-      <c r="L5">
-        <v>12</v>
-      </c>
-      <c r="M5">
-        <v>10</v>
-      </c>
-      <c r="N5">
-        <v>5</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
       <c r="R5">
         <v>1</v>
       </c>
       <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
         <v>66</v>
@@ -1408,25 +1521,28 @@
         <v>64</v>
       </c>
       <c r="F6">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="G6">
+        <f>(M6/10)*(Q6/10)</f>
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="I6">
         <v>5</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="I6">
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>80</v>
-      </c>
-      <c r="J6">
-        <v>1000</v>
-      </c>
-      <c r="K6">
-        <v>20</v>
-      </c>
-      <c r="L6">
-        <v>25</v>
       </c>
       <c r="M6">
         <v>20</v>
@@ -1435,27 +1551,36 @@
         <v>5</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
         <v>65</v>
@@ -1464,54 +1589,66 @@
         <v>64</v>
       </c>
       <c r="F7">
+        <f t="shared" si="0"/>
+        <v>5.833333333333333</v>
+      </c>
+      <c r="G7">
+        <f>(M7/10)*(Q7/10)</f>
         <v>8</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
       <c r="H7">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>2.3055555555555554</v>
       </c>
       <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>1.2</v>
+      </c>
+      <c r="L7">
         <v>50</v>
       </c>
-      <c r="J7">
-        <v>1000</v>
-      </c>
-      <c r="K7">
+      <c r="M7">
+        <v>40</v>
+      </c>
+      <c r="N7">
         <v>15</v>
       </c>
-      <c r="L7">
+      <c r="O7">
         <v>20</v>
       </c>
-      <c r="M7">
-        <v>5</v>
-      </c>
-      <c r="N7">
-        <v>10</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
       <c r="P7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
         <v>71</v>
@@ -1520,52 +1657,64 @@
         <v>73</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <f>(M8/10)*(Q8/10)</f>
+        <v>50</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>52.2</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>1000000000</v>
+        <v>5</v>
       </c>
       <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1000</v>
+      </c>
+      <c r="N8">
         <v>10</v>
       </c>
-      <c r="L8">
-        <v>15</v>
-      </c>
-      <c r="M8">
+      <c r="O8">
+        <v>12</v>
+      </c>
+      <c r="P8">
         <v>5</v>
       </c>
-      <c r="N8">
-        <v>20</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
       <c r="Q8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:W2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:Z2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1580,10 +1729,10 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1727,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1753,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1779,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G7">
         <v>1</v>

--- a/ExcelConfig/characters.xlsx
+++ b/ExcelConfig/characters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="580" windowWidth="25080" windowHeight="12840" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="580" windowWidth="25080" windowHeight="12840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -1135,11 +1135,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O14" activeCellId="1" sqref="P6 O14"/>
+      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1728,11 +1728,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G6">
         <v>1</v>

--- a/ExcelConfig/characters.xlsx
+++ b/ExcelConfig/characters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="580" windowWidth="25080" windowHeight="12840" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="580" windowWidth="25080" windowHeight="12840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="S3" authorId="0">
+    <comment ref="P3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="0">
+    <comment ref="Q3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -62,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U3" authorId="0">
+    <comment ref="R3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V3" authorId="0">
+    <comment ref="S3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="82">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -618,61 +618,6 @@
     <t>防御塔</t>
     <rPh sb="0" eb="1">
       <t>fang yu ta</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DPS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害参考值</t>
-    <rPh sb="0" eb="1">
-      <t>shang hai</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>can kao</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zhi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生存能力参考值</t>
-    <rPh sb="0" eb="1">
-      <t>sheng cun</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>neng li</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>can kao</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>zhi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗比值</t>
-    <rPh sb="0" eb="1">
-      <t>xiao hao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>bi zhi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1133,13 +1078,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1149,25 +1094,22 @@
     <col min="3" max="3" width="11.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="45.83203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="30.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.1640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16.1640625" style="2" customWidth="1"/>
-    <col min="11" max="12" width="15.6640625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.5" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.83203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="14.33203125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="10.1640625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="11.1640625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="8.83203125" style="2"/>
-    <col min="19" max="19" width="11" style="2" customWidth="1"/>
-    <col min="20" max="21" width="13.5" style="2" customWidth="1"/>
-    <col min="22" max="22" width="12.33203125" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="8.83203125" style="2"/>
+    <col min="6" max="6" width="10.1640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" style="2" customWidth="1"/>
+    <col min="8" max="9" width="15.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.1640625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.83203125" style="2"/>
+    <col min="16" max="16" width="11" style="2" customWidth="1"/>
+    <col min="17" max="18" width="13.5" style="2" customWidth="1"/>
+    <col min="19" max="19" width="12.33203125" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1184,58 +1126,49 @@
         <v>45</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>69</v>
+        <v>48</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>74</v>
+        <v>19</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V1" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1252,25 +1185,25 @@
         <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>6</v>
@@ -1293,17 +1226,8 @@
       <c r="S2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:19" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1320,58 +1244,49 @@
         <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="G3" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="I3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="K3" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="L3" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="P3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Q3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="R3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="S3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T3" t="s">
-        <v>32</v>
-      </c>
-      <c r="U3" t="s">
         <v>34</v>
       </c>
-      <c r="V3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:19" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>1</v>
       </c>
@@ -1385,129 +1300,105 @@
         <v>47</v>
       </c>
       <c r="F4">
-        <f>((N4+O4)/2)/J4</f>
-        <v>8.3333333333333339</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <f>(M4/10)*(Q4/10)</f>
         <v>1.5</v>
       </c>
       <c r="H4">
-        <f>(F4+G4)/I4</f>
-        <v>2.4583333333333335</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="J4">
-        <v>1.5</v>
+        <v>30</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L4">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="M4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="N4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O4">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F8" si="0">((N5+O5)/2)/J5</f>
-        <v>5.5</v>
+        <v>12</v>
       </c>
       <c r="G5">
-        <f>(M5/10)*(Q5/10)</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H8" si="1">(F5+G5)/I5</f>
-        <v>0.58333333333333337</v>
+        <v>1</v>
       </c>
       <c r="I5">
+        <v>80</v>
+      </c>
+      <c r="J5">
+        <v>30</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
         <v>12</v>
       </c>
-      <c r="J5">
+      <c r="M5">
+        <v>20</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
         <v>2</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>80</v>
-      </c>
-      <c r="M5">
-        <v>30</v>
-      </c>
-      <c r="N5">
-        <v>10</v>
-      </c>
-      <c r="O5">
-        <v>12</v>
-      </c>
-      <c r="P5">
-        <v>20</v>
-      </c>
-      <c r="Q5">
-        <v>5</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>1</v>
-      </c>
-      <c r="V5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:19" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>3</v>
       </c>
@@ -1521,28 +1412,25 @@
         <v>64</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <f>(M6/10)*(Q6/10)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="I6">
+        <v>80</v>
+      </c>
+      <c r="J6">
+        <v>20</v>
+      </c>
+      <c r="K6">
         <v>5</v>
       </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
       <c r="L6">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="M6">
         <v>20</v>
@@ -1551,31 +1439,22 @@
         <v>5</v>
       </c>
       <c r="O6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:19" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>4</v>
       </c>
@@ -1589,61 +1468,49 @@
         <v>64</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
-        <v>5.833333333333333</v>
+        <v>6</v>
       </c>
       <c r="G7">
-        <f>(M7/10)*(Q7/10)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
-        <v>2.3055555555555554</v>
+        <v>1.2</v>
       </c>
       <c r="I7">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="K7">
-        <v>1.2</v>
+        <v>15</v>
       </c>
       <c r="L7">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O7">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>1</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>5</v>
       </c>
@@ -1657,64 +1524,52 @@
         <v>73</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <f>(M8/10)*(Q8/10)</f>
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
-        <v>52.2</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
+        <v>1000</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <v>12</v>
+      </c>
+      <c r="M8">
         <v>5</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>1000</v>
-      </c>
       <c r="N8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O8">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:Z2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:W2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1728,7 +1583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>

--- a/ExcelConfig/characters.xlsx
+++ b/ExcelConfig/characters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="580" windowWidth="25080" windowHeight="12840" activeTab="1"/>
+    <workbookView xWindow="520" yWindow="460" windowWidth="25080" windowHeight="12840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -32,22 +32,24 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="P3" authorId="0">
+    <comment ref="T3" authorId="0">
       <text>
         <r>
           <rPr>
+            <b/>
             <sz val="11"/>
             <color indexed="81"/>
             <rFont val="ＭＳ Ｐゴシック"/>
             <charset val="128"/>
           </rPr>
-          <t xml:space="preserve">0 human 人类
-1 skeleton 骷髅
+          <t xml:space="preserve">0 Force
+1 Knowledge
+2 Agility
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="0">
+    <comment ref="U3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -62,22 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">0 Normal 普通
-1 Remote 远程
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S3" authorId="0">
+    <comment ref="V3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +90,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -118,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -137,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="91">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -256,17 +243,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击力</t>
-    <rPh sb="0" eb="1">
-      <t>gong ji li</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Defance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -278,29 +254,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级</t>
-    <rPh sb="0" eb="1">
-      <t>deng ji</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>种族</t>
-    <rPh sb="0" eb="1">
-      <t>zhong zu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DefanceType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BodyType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -311,10 +265,6 @@
     <rPh sb="2" eb="3">
       <t>lei xing</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -557,17 +507,6 @@
     <t>att_004</t>
   </si>
   <si>
-    <t>Cost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗</t>
-    <rPh sb="0" eb="1">
-      <t>xiao hao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Characters/tower.prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -630,6 +569,114 @@
     <rPh sb="0" eb="1">
       <t>mu shi</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求MP</t>
+    <rPh sb="0" eb="1">
+      <t>xu qiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法</t>
+    <rPh sb="0" eb="1">
+      <t>mo fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Force</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量</t>
+    <rPh sb="0" eb="1">
+      <t>li liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knowledge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力</t>
+    <rPh sb="0" eb="1">
+      <t>zhi li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Agility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷</t>
+    <rPh sb="0" eb="1">
+      <t>min jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForceGrowth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量成长</t>
+    <rPh sb="0" eb="1">
+      <t>li liang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cheng zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KnowledgeGrowth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力成长</t>
+    <rPh sb="0" eb="1">
+      <t>zhi li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cheng zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷成长</t>
+    <rPh sb="0" eb="1">
+      <t>min jie</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cheng zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种类</t>
+    <rPh sb="0" eb="1">
+      <t>zhong lei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AgilityGrowth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1078,13 +1125,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1094,22 +1141,21 @@
     <col min="3" max="3" width="11.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="45.83203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="30.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" style="2" customWidth="1"/>
-    <col min="8" max="9" width="15.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" style="2" customWidth="1"/>
+    <col min="7" max="9" width="15.6640625" style="2" customWidth="1"/>
     <col min="10" max="10" width="13.5" style="2" customWidth="1"/>
     <col min="11" max="11" width="11.83203125" style="2" customWidth="1"/>
     <col min="12" max="12" width="14.33203125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.1640625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.1640625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" style="2"/>
-    <col min="16" max="16" width="11" style="2" customWidth="1"/>
-    <col min="17" max="18" width="13.5" style="2" customWidth="1"/>
-    <col min="19" max="19" width="12.33203125" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="8.83203125" style="2"/>
+    <col min="13" max="16" width="11.1640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="14" style="2" customWidth="1"/>
+    <col min="18" max="18" width="19.1640625" style="2" customWidth="1"/>
+    <col min="19" max="20" width="16.5" style="2" customWidth="1"/>
+    <col min="21" max="21" width="13.5" style="2" customWidth="1"/>
+    <col min="22" max="22" width="12.33203125" style="2" customWidth="1"/>
+    <col min="23" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1120,22 +1166,22 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>17</v>
@@ -1150,25 +1196,34 @@
         <v>23</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="V1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1185,16 +1240,16 @@
         <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>6</v>
@@ -1218,16 +1273,25 @@
         <v>6</v>
       </c>
       <c r="Q2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:19" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1238,22 +1302,22 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
         <v>37</v>
       </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" t="s">
-        <v>70</v>
-      </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="I3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s">
         <v>18</v>
@@ -1268,48 +1332,57 @@
         <v>24</v>
       </c>
       <c r="N3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R3" t="s">
+        <v>86</v>
+      </c>
+      <c r="S3" t="s">
+        <v>87</v>
+      </c>
+      <c r="T3" t="s">
+        <v>89</v>
+      </c>
+      <c r="U3" t="s">
         <v>26</v>
       </c>
-      <c r="O3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" t="s">
-        <v>34</v>
-      </c>
-      <c r="S3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="V3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="G4">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="I4">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J4">
         <v>30</v>
@@ -1324,13 +1397,13 @@
         <v>5</v>
       </c>
       <c r="N4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O4">
         <v>1</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -1339,33 +1412,42 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
         <v>80</v>
       </c>
-      <c r="F5">
-        <v>12</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
       <c r="I5">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J5">
         <v>30</v>
@@ -1377,7 +1459,7 @@
         <v>12</v>
       </c>
       <c r="M5">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N5">
         <v>5</v>
@@ -1386,42 +1468,51 @@
         <v>1</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="I6">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J6">
         <v>20</v>
@@ -1433,16 +1524,16 @@
         <v>10</v>
       </c>
       <c r="M6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O6">
         <v>1</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -1453,31 +1544,40 @@
       <c r="S6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H7">
-        <v>1.2</v>
+        <v>50</v>
       </c>
       <c r="I7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J7">
         <v>40</v>
@@ -1492,48 +1592,57 @@
         <v>20</v>
       </c>
       <c r="N7">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="O7">
         <v>1</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J8">
         <v>1000</v>
@@ -1548,28 +1657,37 @@
         <v>5</v>
       </c>
       <c r="N8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O8">
         <v>1</v>
       </c>
       <c r="P8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:W2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:Z2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1581,13 +1699,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1595,13 +1713,13 @@
     <col min="1" max="1" width="27.83203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="25.33203125" style="2" customWidth="1"/>
-    <col min="4" max="7" width="27.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28.1640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.33203125" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="2"/>
+    <col min="4" max="8" width="27.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="28.1640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1615,22 +1733,25 @@
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1644,22 +1765,25 @@
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1673,24 +1797,27 @@
         <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1699,25 +1826,28 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>7</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>2</v>
       </c>
@@ -1725,25 +1855,28 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>2</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>3</v>
       </c>
@@ -1751,25 +1884,28 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>6</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>4</v>
       </c>
@@ -1777,25 +1913,28 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>1.5</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>5</v>
       </c>
@@ -1803,28 +1942,31 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>8</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:U2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:V2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1849,7 +1991,7 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1857,7 +1999,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1865,7 +2007,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1873,7 +2015,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B5">
         <v>2</v>

--- a/ExcelConfig/characters.xlsx
+++ b/ExcelConfig/characters.xlsx
@@ -1128,10 +1128,10 @@
   <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1406,16 +1406,16 @@
         <v>10</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -1471,13 +1471,13 @@
         <v>10</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="T5">
         <v>1</v>
@@ -1536,13 +1536,13 @@
         <v>10</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="T6">
         <v>1</v>
@@ -1601,16 +1601,16 @@
         <v>10</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="T7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7">
         <v>1</v>

--- a/ExcelConfig/characters.xlsx
+++ b/ExcelConfig/characters.xlsx
@@ -1128,10 +1128,10 @@
   <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q12" sqref="Q12"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1373,10 +1373,10 @@
         <v>40</v>
       </c>
       <c r="F4">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <v>80</v>
@@ -1438,10 +1438,10 @@
         <v>71</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>2</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
       </c>
       <c r="H5">
         <v>80</v>
@@ -1503,10 +1503,10 @@
         <v>57</v>
       </c>
       <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>3</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
       </c>
       <c r="H6">
         <v>80</v>
@@ -1568,10 +1568,10 @@
         <v>57</v>
       </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>3</v>
-      </c>
-      <c r="G7">
-        <v>1.2</v>
       </c>
       <c r="H7">
         <v>50</v>

--- a/ExcelConfig/characters.xlsx
+++ b/ExcelConfig/characters.xlsx
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="88">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -507,18 +507,10 @@
     <t>att_004</t>
   </si>
   <si>
-    <t>Characters/tower.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>att_005</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AI/AITree_2.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PriorityMove</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -550,13 +542,6 @@
     <t>武士</t>
     <rPh sb="0" eb="1">
       <t>wu shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御塔</t>
-    <rPh sb="0" eb="1">
-      <t>fang yu ta</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1125,13 +1110,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1178,10 +1163,10 @@
         <v>41</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>17</v>
@@ -1196,25 +1181,25 @@
         <v>23</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>25</v>
@@ -1314,10 +1299,10 @@
         <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J3" t="s">
         <v>18</v>
@@ -1332,25 +1317,25 @@
         <v>24</v>
       </c>
       <c r="N3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="Q3" t="s">
+        <v>81</v>
+      </c>
+      <c r="R3" t="s">
+        <v>83</v>
+      </c>
+      <c r="S3" t="s">
         <v>84</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
         <v>86</v>
-      </c>
-      <c r="S3" t="s">
-        <v>87</v>
-      </c>
-      <c r="T3" t="s">
-        <v>89</v>
       </c>
       <c r="U3" t="s">
         <v>26</v>
@@ -1364,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
         <v>35</v>
@@ -1376,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <v>80</v>
@@ -1385,34 +1370,34 @@
         <v>100</v>
       </c>
       <c r="J4">
-        <v>30</v>
+        <v>400</v>
       </c>
       <c r="K4">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="L4">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="M4">
         <v>5</v>
       </c>
       <c r="N4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O4">
         <v>1</v>
       </c>
       <c r="P4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q4">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="T4">
         <v>2</v>
@@ -1429,19 +1414,19 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>80</v>
@@ -1450,13 +1435,13 @@
         <v>100</v>
       </c>
       <c r="J5">
+        <v>450</v>
+      </c>
+      <c r="K5">
         <v>30</v>
       </c>
-      <c r="K5">
-        <v>10</v>
-      </c>
       <c r="L5">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="M5">
         <v>5</v>
@@ -1465,19 +1450,19 @@
         <v>5</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S5">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="T5">
         <v>1</v>
@@ -1494,7 +1479,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
         <v>59</v>
@@ -1515,43 +1500,43 @@
         <v>100</v>
       </c>
       <c r="J6">
-        <v>20</v>
+        <v>600</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="L6">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="M6">
         <v>5</v>
       </c>
       <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>3.5</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
         <v>2</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>10</v>
-      </c>
-      <c r="Q6">
-        <v>0.3</v>
-      </c>
-      <c r="R6">
-        <v>2</v>
-      </c>
-      <c r="S6">
-        <v>0.2</v>
-      </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
@@ -1559,7 +1544,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
         <v>58</v>
@@ -1568,7 +1553,7 @@
         <v>57</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -1580,34 +1565,34 @@
         <v>100</v>
       </c>
       <c r="J7">
-        <v>40</v>
+        <v>800</v>
       </c>
       <c r="K7">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="L7">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="M7">
         <v>20</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O7">
         <v>1</v>
       </c>
       <c r="P7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="R7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -1616,71 +1601,6 @@
         <v>1</v>
       </c>
       <c r="V7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>100</v>
-      </c>
-      <c r="J8">
-        <v>1000</v>
-      </c>
-      <c r="K8">
-        <v>10</v>
-      </c>
-      <c r="L8">
-        <v>12</v>
-      </c>
-      <c r="M8">
-        <v>5</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>10</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
-      <c r="U8">
-        <v>1</v>
-      </c>
-      <c r="V8">
         <v>1</v>
       </c>
     </row>
@@ -1733,7 +1653,7 @@
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>49</v>
@@ -1797,7 +1717,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>51</v>
@@ -1942,7 +1862,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8">
         <v>0</v>

--- a/ExcelConfig/characters.xlsx
+++ b/ExcelConfig/characters.xlsx
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
@@ -1358,7 +1358,7 @@
         <v>40</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -1423,7 +1423,7 @@
         <v>68</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -1488,7 +1488,7 @@
         <v>57</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -1553,7 +1553,7 @@
         <v>57</v>
       </c>
       <c r="F7">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>3</v>

--- a/ExcelConfig/characters.xlsx
+++ b/ExcelConfig/characters.xlsx
@@ -1116,7 +1116,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1361,7 +1361,7 @@
         <v>2</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <v>80</v>
@@ -1426,7 +1426,7 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <v>80</v>
@@ -1491,7 +1491,7 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6">
         <v>80</v>
@@ -1556,7 +1556,7 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7">
         <v>50</v>

--- a/ExcelConfig/characters.xlsx
+++ b/ExcelConfig/characters.xlsx
@@ -32,7 +32,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="T3" authorId="0">
+    <comment ref="U3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U3" authorId="0">
+    <comment ref="V3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V3" authorId="0">
+    <comment ref="W3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="90">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -662,6 +662,17 @@
   </si>
   <si>
     <t>AgilityGrowth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ViewDistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视野</t>
+    <rPh sb="0" eb="1">
+      <t>shi ye</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1110,13 +1121,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1125,22 +1136,22 @@
     <col min="2" max="2" width="12.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="45.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" style="2" customWidth="1"/>
-    <col min="7" max="9" width="15.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.5" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.83203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" style="2" customWidth="1"/>
-    <col min="13" max="16" width="11.1640625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="14" style="2" customWidth="1"/>
-    <col min="18" max="18" width="19.1640625" style="2" customWidth="1"/>
-    <col min="19" max="20" width="16.5" style="2" customWidth="1"/>
-    <col min="21" max="21" width="13.5" style="2" customWidth="1"/>
-    <col min="22" max="22" width="12.33203125" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="8.83203125" style="2"/>
+    <col min="5" max="6" width="30.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" style="2" customWidth="1"/>
+    <col min="8" max="10" width="15.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" style="2" customWidth="1"/>
+    <col min="14" max="17" width="11.1640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="14" style="2" customWidth="1"/>
+    <col min="19" max="19" width="19.1640625" style="2" customWidth="1"/>
+    <col min="20" max="21" width="16.5" style="2" customWidth="1"/>
+    <col min="22" max="22" width="13.5" style="2" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1157,58 +1168,61 @@
         <v>38</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1234,7 +1248,7 @@
         <v>32</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>6</v>
@@ -1258,7 +1272,7 @@
         <v>6</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>32</v>
@@ -1267,7 +1281,7 @@
         <v>32</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>6</v>
@@ -1275,8 +1289,11 @@
       <c r="V2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="W2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1293,58 +1310,61 @@
         <v>39</v>
       </c>
       <c r="F3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" t="s">
         <v>37</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>42</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>64</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>73</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>18</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>22</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>21</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>24</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>75</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>77</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>79</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>81</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>83</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>84</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>86</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>26</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>1</v>
       </c>
@@ -1358,58 +1378,61 @@
         <v>40</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4">
+        <v>3.5</v>
+      </c>
+      <c r="I4">
         <v>80</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>100</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>400</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>45</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>60</v>
-      </c>
-      <c r="M4">
-        <v>5</v>
       </c>
       <c r="N4">
         <v>5</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
         <v>5</v>
       </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
       <c r="R4">
         <v>1</v>
       </c>
       <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
         <v>3.5</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>2</v>
       </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
       <c r="V4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>2</v>
       </c>
@@ -1423,28 +1446,28 @@
         <v>68</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <v>2</v>
       </c>
       <c r="H5">
+        <v>3.5</v>
+      </c>
+      <c r="I5">
         <v>80</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>100</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>450</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>30</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>45</v>
-      </c>
-      <c r="M5">
-        <v>5</v>
       </c>
       <c r="N5">
         <v>5</v>
@@ -1453,28 +1476,31 @@
         <v>5</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q5">
         <v>1</v>
       </c>
       <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
         <v>3</v>
       </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
       <c r="T5">
         <v>1</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>3</v>
       </c>
@@ -1488,28 +1514,28 @@
         <v>57</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G6">
         <v>2</v>
       </c>
       <c r="H6">
+        <v>3.5</v>
+      </c>
+      <c r="I6">
         <v>80</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>100</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>600</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>30</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>45</v>
-      </c>
-      <c r="M6">
-        <v>5</v>
       </c>
       <c r="N6">
         <v>5</v>
@@ -1518,28 +1544,31 @@
         <v>5</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q6">
         <v>1</v>
       </c>
       <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
         <v>3.5</v>
       </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
       <c r="T6">
         <v>1</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>4</v>
       </c>
@@ -1553,61 +1582,64 @@
         <v>57</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
       <c r="H7">
+        <v>3.5</v>
+      </c>
+      <c r="I7">
         <v>50</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>100</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>800</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>55</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>90</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>20</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>5</v>
       </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
       <c r="P7">
         <v>1</v>
       </c>
       <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
         <v>3.5</v>
       </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
       <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
         <v>1.2</v>
       </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
       <c r="U7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:Z2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:AA2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ExcelConfig/characters.xlsx
+++ b/ExcelConfig/characters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="520" yWindow="460" windowWidth="25080" windowHeight="12840" activeTab="1"/>
+    <workbookView xWindow="520" yWindow="460" windowWidth="25080" windowHeight="12840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -100,8 +100,9 @@
             <rFont val="ＭＳ Ｐゴシック"/>
             <charset val="128"/>
           </rPr>
-          <t>1 AI释放
-2 创建角色释放</t>
+          <t>1 普通攻击
+2 创建角色释放
+3 魔法</t>
         </r>
       </text>
     </comment>
@@ -1123,11 +1124,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1378,7 +1379,7 @@
         <v>40</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1446,7 +1447,7 @@
         <v>68</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1514,7 +1515,7 @@
         <v>57</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1582,7 +1583,7 @@
         <v>57</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1653,11 +1654,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1787,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -1845,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1891,7 +1892,7 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
         <v>62</v>
@@ -1903,10 +1904,10 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>1</v>

--- a/ExcelConfig/characters.xlsx
+++ b/ExcelConfig/characters.xlsx
@@ -1658,7 +1658,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1913,7 +1913,7 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/characters.xlsx
+++ b/ExcelConfig/characters.xlsx
@@ -116,7 +116,11 @@
             <rFont val="ＭＳ Ｐゴシック"/>
             <charset val="128"/>
           </rPr>
-          <t>AI获取编号</t>
+          <t>ALL=0 ;//所有
+ Enemy =1;//敌人
+ OwnTeam =2;//自己队友
+ OwnTeamWithOutSelf =3;//不包含自己
+ Own =4;//只有自己</t>
         </r>
       </text>
     </comment>
@@ -125,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -380,10 +384,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ReleaseParams</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>释放参数</t>
     <rPh sb="0" eb="1">
       <t>shi fang</t>
@@ -674,6 +674,18 @@
     <rPh sb="0" eb="1">
       <t>shi ye</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>att_006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReleaseAITargetType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1169,7 +1181,7 @@
         <v>38</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>36</v>
@@ -1178,10 +1190,10 @@
         <v>41</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>17</v>
@@ -1196,25 +1208,25 @@
         <v>23</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>25</v>
@@ -1311,7 +1323,7 @@
         <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s">
         <v>37</v>
@@ -1320,10 +1332,10 @@
         <v>42</v>
       </c>
       <c r="I3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K3" t="s">
         <v>18</v>
@@ -1338,25 +1350,25 @@
         <v>24</v>
       </c>
       <c r="O3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S3" t="s">
+        <v>82</v>
+      </c>
+      <c r="T3" t="s">
         <v>83</v>
       </c>
-      <c r="T3" t="s">
-        <v>84</v>
-      </c>
       <c r="U3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V3" t="s">
         <v>26</v>
@@ -1370,7 +1382,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
         <v>35</v>
@@ -1438,13 +1450,13 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -1506,13 +1518,13 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -1574,13 +1586,13 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -1652,13 +1664,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1686,19 +1698,19 @@
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>31</v>
@@ -1730,7 +1742,7 @@
         <v>6</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>32</v>
@@ -1750,19 +1762,19 @@
         <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>44</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>33</v>
@@ -1770,7 +1782,7 @@
     </row>
     <row r="4" spans="1:10" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1779,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1808,7 +1820,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1823,7 +1835,7 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1837,7 +1849,7 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1866,7 +1878,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1895,7 +1907,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1913,6 +1925,35 @@
         <v>1</v>
       </c>
       <c r="J8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
         <v>7</v>
       </c>
     </row>
@@ -1944,7 +1985,7 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1960,7 +2001,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1968,7 +2009,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5">
         <v>2</v>

--- a/ExcelConfig/characters.xlsx
+++ b/ExcelConfig/characters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="520" yWindow="460" windowWidth="25080" windowHeight="12840" activeTab="2"/>
+    <workbookView xWindow="520" yWindow="460" windowWidth="25080" windowHeight="12840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="91">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -544,10 +544,6 @@
     <rPh sb="0" eb="1">
       <t>wu shi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI/AITree_3.xml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1136,11 +1132,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1181,7 +1177,7 @@
         <v>38</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>36</v>
@@ -1193,7 +1189,7 @@
         <v>62</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>17</v>
@@ -1208,25 +1204,25 @@
         <v>23</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>25</v>
@@ -1323,7 +1319,7 @@
         <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G3" t="s">
         <v>37</v>
@@ -1335,7 +1331,7 @@
         <v>63</v>
       </c>
       <c r="J3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K3" t="s">
         <v>18</v>
@@ -1350,25 +1346,25 @@
         <v>24</v>
       </c>
       <c r="O3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S3" t="s">
+        <v>81</v>
+      </c>
+      <c r="T3" t="s">
         <v>82</v>
       </c>
-      <c r="T3" t="s">
-        <v>83</v>
-      </c>
       <c r="U3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V3" t="s">
         <v>26</v>
@@ -1450,13 +1446,13 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -1666,11 +1662,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1698,7 +1694,7 @@
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>48</v>
@@ -1710,7 +1706,7 @@
         <v>43</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>31</v>
@@ -1742,7 +1738,7 @@
         <v>6</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>32</v>
@@ -1762,7 +1758,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>50</v>
@@ -1936,7 +1932,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E9">
         <v>0</v>

--- a/ExcelConfig/characters.xlsx
+++ b/ExcelConfig/characters.xlsx
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -682,6 +682,10 @@
   </si>
   <si>
     <t>ReleaseAITargetType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI/AITree_3.xml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1133,10 +1137,10 @@
   <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1452,7 +1456,7 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="F5">
         <v>5</v>

--- a/ExcelConfig/characters.xlsx
+++ b/ExcelConfig/characters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="520" yWindow="460" windowWidth="25080" windowHeight="12840" activeTab="1"/>
+    <workbookView xWindow="520" yWindow="460" windowWidth="25080" windowHeight="12840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="93">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -687,6 +687,9 @@
   <si>
     <t>AI/AITree_3.xml</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>att_007</t>
   </si>
 </sst>
 </file>
@@ -1136,7 +1139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -1664,13 +1667,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1939,7 +1942,7 @@
         <v>88</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1955,6 +1958,35 @@
       </c>
       <c r="J9">
         <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/characters.xlsx
+++ b/ExcelConfig/characters.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26101"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27610"/>
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="520" yWindow="460" windowWidth="25080" windowHeight="12840" activeTab="1"/>
+    <workbookView xWindow="520" yWindow="460" windowWidth="25080" windowHeight="12840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,9 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -90,7 +93,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -106,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
+    <comment ref="J3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="99">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -686,6 +689,37 @@
   </si>
   <si>
     <t>AI/AITree_3.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法图标</t>
+    <rPh sb="0" eb="1">
+      <t>mo fa</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tu biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill01</t>
+  </si>
+  <si>
+    <t>skill01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill02</t>
+  </si>
+  <si>
+    <t>att_007</t>
+  </si>
+  <si>
+    <t>skill02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1136,11 +1170,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1664,27 +1698,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.83203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" style="2" customWidth="1"/>
-    <col min="4" max="8" width="27.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="28.1640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="21.33203125" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="2"/>
+    <col min="3" max="4" width="25.33203125" style="2" customWidth="1"/>
+    <col min="5" max="9" width="27.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.1640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="21.33203125" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1695,28 +1729,31 @@
         <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1730,25 +1767,28 @@
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1758,29 +1798,32 @@
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:10" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -1791,28 +1834,31 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" t="s">
         <v>51</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>4</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>2</v>
       </c>
@@ -1820,28 +1866,31 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" t="s">
         <v>55</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>2</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
       <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
         <v>2</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>3</v>
       </c>
@@ -1849,28 +1898,31 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" t="s">
         <v>59</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>3.5</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>4</v>
       </c>
@@ -1878,28 +1930,31 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" t="s">
         <v>60</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>1.5</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>5</v>
       </c>
@@ -1907,28 +1962,31 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" t="s">
         <v>61</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>4</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>2</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
       <c r="J8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>6</v>
       </c>
@@ -1936,31 +1994,66 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" t="s">
         <v>88</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>4</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>2</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>4</v>
       </c>
-      <c r="J9">
+      <c r="K9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="B10">
         <v>7</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:V2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:W2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>
   </dataValidations>
